--- a/mi/utils/Kubrick MI Data.xlsx
+++ b/mi/utils/Kubrick MI Data.xlsx
@@ -11,6 +11,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scrape_bettergov" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scrape_capco" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="infosys" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kubrick" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iqvia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cambridge_consultants" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7354,4 +7357,1129 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>services</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Business Analysis &amp; Business Process Mining</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Requirements Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agile Product Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Change &amp; Risk Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Data Product Testing &amp; Validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Data Product Launch &amp; Deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Data Product Lifecycle Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Modern Data Architecture &amp; Data Modelling</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Data Connectivity and Integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cloud Data Warehouse and Lake Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DataOps</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Data Orchestration</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Data Streaming​</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Scalability &amp; Performance Optimisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Database Design &amp; Development​</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Data Governance Frameworks &amp; Policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Policy-as-Code</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Master Data &amp; Reference Data Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Data Quality Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Data Cataloging &amp; Lineage</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Data Privacy &amp; Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Data Domain Modelling</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Data Analysis &amp; Insights​</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Advanced Data Visualisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Decision Intelligence​</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Knowledge Graph Development​</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Digital Twins​</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Data Storytelling​</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Self-service Enablement</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Feature Engineering​</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Model Development​</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ML Engineering ​</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LLMOps​</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LLM Integration &amp; Fine Tuning​</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Prompt Engineering​</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AI Ethics &amp; Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Cloud Design &amp; Deployment​</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Cloud Migration​</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Cloud Infra Optimization​</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CI/CD​</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FinOps &amp; Sustainability​</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Cloud Security &amp; Compliance​</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>services</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Clinical Research</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Clinical Research</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ClinicalOperations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Clinical Research</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clinical Project Management &amp; Leadership</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Clinical Research</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clinical DataManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Clinical Research</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>StatisticalServices</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Technology &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>InformationSecurity</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Technology &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DevOps</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Technology &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Software Development Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Technology &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Software QA and Test Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Technology &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AI and Machine Learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Commercial Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Real World Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Technical Consulting</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>services</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5G and wireless connectivity</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Radio systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5G and wireless connectivity</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Connectivity and IOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5G and wireless connectivity</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Digital signal processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5G and wireless connectivity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AI and analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5G and wireless connectivity</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strategic advice</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Advanced computing</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASICs and electronics</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Advanced computing</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Optics and photonics</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Advanced computing</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Physical sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Advanced computing</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AI and analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI and data analytics</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AI and analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI and data analytics</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Simulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI and data analytics</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Connectivity and IoT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI and data analytics</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sensing</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI and data analytics</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Electronics and ASICs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cell and gene therapy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Synthetic biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AI and analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Physical sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Simulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strategic advice</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Digital transformation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Digital services</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Digital transformation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Digital security</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Digital transformation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AI and analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Digital transformation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Extended reality (XR)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Digital transformation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>User experience (UX)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Digital transformation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Connectivity and IOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Quantum technology</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Optics and photonics</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Quantum technology</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Physical sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Quantum technology</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Product realisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Quantum technology</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Strategic advice</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mi/utils/Kubrick MI Data.xlsx
+++ b/mi/utils/Kubrick MI Data.xlsx
@@ -8,12 +8,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cambridge_consultants" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="capco" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cognizant" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="infosys" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iqvia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kubrick" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bettergov" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cognizant" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="infosys" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iqvia" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kubrick" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bettergov" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="capco" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1186,273 +1186,6 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Practices_URL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Practices</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Services_URL</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Digital</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com/Services/digital</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DATA &amp; ANALYTICS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Digital</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com/Services/digital</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DIGITAL INNOVATION</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Digital</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com/Services/digital</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DIGITAL ENGINEERING</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com/Services/consulting</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TRANSFORMATION SERVICES</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com/Services/consulting</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> STRATEGY</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com/Services/consulting</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RISK, REGULATORY &amp; COMPLIANCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com/Services/consulting</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CHANGE SERVICES</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com/Services/technology</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SYSTEMS INTEGRATION</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com/Services/technology</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SECURITY SERVICES</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>https://www.capco.com/Services/technology</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TECHNOLOGY ADVISORY</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1464,7 +1197,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="41.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -2990,7 +2723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3004,13 +2737,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="41.29071428571429" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="31.43357142857143" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="52.005" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="47.86214285714286" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Practices_URL</t>
@@ -13157,7 +12890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -13490,13 +13223,1006 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Practices_URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Practices</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Services_URL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Business Analysis &amp; Business Process Mining</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Requirements Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Agile Product Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Change &amp; Risk Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Data Product Testing &amp; Validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Data Product Launch &amp; Deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Data Product Management</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Data Product Lifecycle Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Modern Data Architecture &amp; Data Modelling</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Data Connectivity and Integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Cloud Data Warehouse and Lake Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>DataOps</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Data Orchestration</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Data Streaming​</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Scalability &amp; Performance Optimisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Data Engineering</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Database Design &amp; Development​</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Data Governance Frameworks &amp; Policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Policy-as-Code</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Master Data &amp; Reference Data Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Data Quality Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Data Cataloging &amp; Lineage</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Data Privacy &amp; Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Data &amp; AI Governance</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Data Domain Modelling</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Data Analysis &amp; Insights​</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Advanced Data Visualisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Decision Intelligence​</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Knowledge Graph Development​</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Digital Twins​</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Data Storytelling​</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Advanced Analytics</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>Self-service Enablement</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Feature Engineering​</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Model Development​</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>ML Engineering ​</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>LLMOps​</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>LLM Integration &amp; Fine Tuning​</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Prompt Engineering​</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>GenAI &amp; MLOps</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>AI Ethics &amp; Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Cloud Design &amp; Deployment​</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Cloud Migration​</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Cloud Infra Optimization​</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>CI/CD​</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>FinOps &amp; Sustainability​</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Cloud Security &amp; Compliance​</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13535,946 +14261,616 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Data Product Management</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-data</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Business Analysis &amp; Business Process Mining</t>
+          <t>Data Architecture</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Data Product Management</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-data</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Requirements Engineering</t>
+          <t>Data Analytics and Visualisation</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Data Product Management</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-data</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Agile Product Management</t>
+          <t>Data Platforms</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Data Product Management</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-data</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Change &amp; Risk Management</t>
+          <t>Data Engineering</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Data Product Management</t>
+          <t>Technology Consulting</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-strategy</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Data Product Testing &amp; Validation</t>
+          <t>Digital Roadmapping</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Data Product Management</t>
+          <t>Technology Consulting</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-strategy</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Data Product Launch &amp; Deployment</t>
+          <t>IT Governance</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Data Product Management</t>
+          <t>Technology Consulting</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-strategy</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Data Product Lifecycle Management</t>
+          <t>Change &amp; Transformation Management</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Technology Consulting</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-strategy</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Modern Data Architecture &amp; Data Modelling</t>
+          <t>Commercial &amp; Procurement</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Digital Services</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-digital</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>Data Connectivity and Integration</t>
+          <t>Discover &amp; Define</t>
         </is>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Digital Services</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-digital</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Cloud Data Warehouse and Lake Development</t>
+          <t>Proof of Concept</t>
         </is>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Digital Services</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-digital</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>DataOps</t>
+          <t>Build &amp; Deliver</t>
         </is>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Digital Services</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-digital</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Data Orchestration</t>
+          <t>Optimise &amp; Automate</t>
         </is>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Modernisation</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-future</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Data Streaming​</t>
+          <t>Automation &amp; AI</t>
         </is>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Modernisation</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-future</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Scalability &amp; Performance Optimisation</t>
+          <t>Modernising Legacy Systems</t>
         </is>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Modernisation</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-future</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>Database Design &amp; Development​</t>
+          <t>Cloud Computing Migration</t>
         </is>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Data &amp; AI Governance</t>
+          <t>Modernisation</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-future</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Data Governance Frameworks &amp; Policy</t>
+          <t>DevOps &amp; Agile</t>
         </is>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Data &amp; AI Governance</t>
+          <t>Information Security</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-security</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Policy-as-Code</t>
+          <t>Security Design &amp; Architecture</t>
         </is>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Data &amp; AI Governance</t>
+          <t>Information Security</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-security</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Master Data &amp; Reference Data Management</t>
+          <t>Cloud Security Assessment &amp; Audits</t>
         </is>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Data &amp; AI Governance</t>
+          <t>Information Security</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-security</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Data Quality Management</t>
+          <t>Secure Engineering &amp; DevSecOps</t>
         </is>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Data &amp; AI Governance</t>
+          <t>Information Security</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-security</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>Data Cataloging &amp; Lineage</t>
+          <t>Penetration Testing</t>
         </is>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Data &amp; AI Governance</t>
+          <t>System Implementation</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-systems</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>Data Privacy &amp; Compliance</t>
+          <t>Social Care</t>
         </is>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Data &amp; AI Governance</t>
+          <t>System Implementation</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-systems</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Data Domain Modelling</t>
+          <t>Education</t>
         </is>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Advanced Analytics</t>
+          <t>System Implementation</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-systems</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Data Analysis &amp; Insights​</t>
+          <t>Housing</t>
         </is>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Advanced Analytics</t>
+          <t>System Implementation</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-systems</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Advanced Data Visualisation</t>
+          <t>HR &amp; Finance</t>
         </is>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Advanced Analytics</t>
+          <t>Capability Development</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-teams</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Decision Intelligence​</t>
+          <t>Strategic Upskilling &amp; Reskilling</t>
         </is>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Advanced Analytics</t>
+          <t>Capability Development</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-teams</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Knowledge Graph Development​</t>
+          <t>Leadership Development</t>
         </is>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Advanced Analytics</t>
+          <t>Capability Development</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-teams</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Digital Twins​</t>
+          <t>Building Communities of Practice</t>
         </is>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Advanced Analytics</t>
+          <t>Capability Development</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
+          <t>https://www.bettergov.co.uk/better-teams</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Data Storytelling​</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>Advanced Analytics</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>Self-service Enablement</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>GenAI &amp; MLOps</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>Feature Engineering​</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>GenAI &amp; MLOps</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>Model Development​</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>GenAI &amp; MLOps</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>ML Engineering ​</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>GenAI &amp; MLOps</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>LLMOps​</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>GenAI &amp; MLOps</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>LLM Integration &amp; Fine Tuning​</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>GenAI &amp; MLOps</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>Prompt Engineering​</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>GenAI &amp; MLOps</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>AI Ethics &amp; Compliance</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>Cloud</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>Cloud Design &amp; Deployment​</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>Cloud</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>Cloud Migration​</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>Cloud</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>Cloud Infra Optimization​</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>Cloud</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>CI/CD​</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>Cloud</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>FinOps &amp; Sustainability​</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>Cloud</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>Cloud Security &amp; Compliance​</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>Cloud</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>https://www.kubrickgroup.com/uk/what-we-do</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>SRE</t>
+          <t>Capability Development</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14518,620 +14914,1294 @@
           <t>Services</t>
         </is>
       </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Solutions_URL</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Solutions</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-data</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Data Architecture</t>
+          <t>DATA &amp; ANALYTICS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/data-and-analytics</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Data Strategy &amp; Advisory</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-data</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Data Analytics and Visualisation</t>
+          <t>DATA &amp; ANALYTICS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/data-and-analytics</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Data Analytics &amp; Insight</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-data</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Data Platforms</t>
+          <t>DATA &amp; ANALYTICS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/data-and-analytics</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Intelligent Automation</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-data</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>DATA &amp; ANALYTICS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/data-and-analytics</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Data Privacy &amp; Security</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Technology Consulting</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-strategy</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Digital Roadmapping</t>
+          <t>DATA &amp; ANALYTICS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/data-and-analytics</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Data Architecture</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Technology Consulting</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-strategy</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>IT Governance</t>
+          <t>DIGITAL ENGINEERING</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/digital-engineering</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Platform Modernization</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Technology Consulting</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-strategy</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Change &amp; Transformation Management</t>
+          <t>DIGITAL ENGINEERING</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/digital-engineering</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mobile &amp; Web Development</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Technology Consulting</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-strategy</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Commercial &amp; Procurement</t>
+          <t>DIGITAL ENGINEERING</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/digital-engineering</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cloud Services</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Digital Services</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-digital</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Discover &amp; Define</t>
+          <t>DIGITAL ENGINEERING</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/digital-engineering</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Quality Engineering</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Digital Services</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-digital</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Proof of Concept</t>
+          <t>DIGITAL ENGINEERING</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/digital-engineering</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DevOps &amp; DevSecOps</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Digital Services</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-digital</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Build &amp; Deliver</t>
+          <t>DIGITAL INNOVATION</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/digital-innovation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Product Management</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Digital Services</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-digital</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Optimise &amp; Automate</t>
+          <t>DIGITAL INNOVATION</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/digital-innovation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Digital Strategy</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modernisation</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-future</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Automation &amp; AI</t>
+          <t>DIGITAL INNOVATION</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/digital-innovation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Experience Design</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modernisation</t>
+          <t>Digital</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-future</t>
+          <t>https://www.capco.com/Services/digital</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Modernising Legacy Systems</t>
+          <t>DIGITAL INNOVATION</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/digital/digital-innovation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Modern Delivery</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modernisation</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-future</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cloud Computing Migration</t>
+          <t>RISK, REGULATORY &amp; COMPLIANCE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/risk-regulatory-and-compliance</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Compliance</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modernisation</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-future</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DevOps &amp; Agile</t>
+          <t>RISK, REGULATORY &amp; COMPLIANCE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/risk-regulatory-and-compliance</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Enterprise Risk Management</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Information Security</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-security</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Security Design &amp; Architecture</t>
+          <t>RISK, REGULATORY &amp; COMPLIANCE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/risk-regulatory-and-compliance</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Regulatory Change</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Information Security</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-security</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cloud Security Assessment &amp; Audits</t>
+          <t>RISK, REGULATORY &amp; COMPLIANCE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/risk-regulatory-and-compliance</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Regulatory Technology</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Information Security</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-security</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Secure Engineering &amp; DevSecOps</t>
+          <t>RISK, REGULATORY &amp; COMPLIANCE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/risk-regulatory-and-compliance</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>RISC Services</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Information Security</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-security</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Penetration Testing</t>
+          <t>TRANSFORMATION SERVICES</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/transformation-services</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Business &amp; Automation Intelligence</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>System Implementation</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-systems</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Social Care</t>
+          <t>TRANSFORMATION SERVICES</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/transformation-services</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cost and Benefit Transformation</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>System Implementation</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-systems</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>TRANSFORMATION SERVICES</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/transformation-services</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Group Functions Transformation</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>System Implementation</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-systems</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>CHANGE SERVICES</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/change-services</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Business Agility</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>System Implementation</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-systems</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HR &amp; Finance</t>
+          <t>CHANGE SERVICES</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/change-services</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Delivery Suite</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Capability Development</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-teams</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Strategic Upskilling &amp; Reskilling</t>
+          <t>CHANGE SERVICES</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/change-services</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Managed Services</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Capability Development</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-teams</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Leadership Development</t>
+          <t>STRATEGY</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/strategy</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Digital Strategy</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Capability Development</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-teams</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Building Communities of Practice</t>
+          <t>STRATEGY</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/strategy</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Business Strategy</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/</t>
+          <t>https://www.capco.com</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Capability Development</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.bettergov.co.uk/better-teams</t>
+          <t>https://www.capco.com/Services/consulting</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Capability Development</t>
+          <t>STRATEGY</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/strategy</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TECHNOLOGY STRATEGY</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>STRATEGY</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/consulting/strategy</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Organization &amp; Talent Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TECHNOLOGY ADVISORY</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/technology-advisory</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Technology Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TECHNOLOGY ADVISORY</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/technology-advisory</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TECHNOLOGY ADVISORY</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/technology-advisory</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Post-Merger Integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TECHNOLOGY ADVISORY</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/technology-advisory</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Technology Delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SYSTEMS INTEGRATION</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/systems-integration</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cloud Migration</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SYSTEMS INTEGRATION</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/systems-integration</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DevOps Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SYSTEMS INTEGRATION</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/systems-integration</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Enterprise Payments</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SYSTEMS INTEGRATION</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/systems-integration</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Enterprise Platforms</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SECURITY SERVICES</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/security-services</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cloud Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SECURITY SERVICES</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/security-services</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Cyber Strategy &amp; Risk Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.capco.com</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SECURITY SERVICES</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.capco.com/Services/technology/security-services</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Cyber Resilience</t>
         </is>
       </c>
     </row>
